--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2048.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2048.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.157072951997761</v>
+        <v>1.29663348197937</v>
       </c>
       <c r="B1">
-        <v>2.58568762837113</v>
+        <v>1.931168675422668</v>
       </c>
       <c r="C1">
-        <v>5.593524302796141</v>
+        <v>5.261541843414307</v>
       </c>
       <c r="D1">
-        <v>2.491829131202266</v>
+        <v>1.931468367576599</v>
       </c>
       <c r="E1">
-        <v>1.213390635572186</v>
+        <v>1.092854022979736</v>
       </c>
     </row>
   </sheetData>
